--- a/file_excel_format/format_capex_5.xlsx
+++ b/file_excel_format/format_capex_5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\smk_ci3_2\file_excel_format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\jmtm_kms\file_excel_format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BE6CB21-0791-4DAD-9C04-E1508F46BE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F62481D9-EF88-45D9-A1FA-8D24A6C7A55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B0CD4C02-9283-4CF0-B156-4432A3490D38}"/>
   </bookViews>
@@ -54,9 +54,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;Rp&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -108,23 +109,22 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -725,26 +725,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23520BA-1C06-4A93-8A0E-A76626F9341F}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -753,12 +753,12 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
-        <v>10000000</v>
+      <c r="C2" s="5">
+        <v>30000000.399999999</v>
       </c>
       <c r="D2" s="4">
         <f>C2</f>
-        <v>10000000</v>
+        <v>30000000.399999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,54 +768,28 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>20000000</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D8" si="0">C3</f>
+        <f t="shared" ref="D3" si="0">C3</f>
         <v>20000000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
